--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -348,11 +348,38 @@
     <t xml:space="preserve">释放6M TEE OS</t>
   </si>
   <si>
+    <t xml:space="preserve">Y839</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.sdrpmb写保护，写不进去key
 2.写key后固件升级key丢失</t>
   </si>
   <si>
     <t xml:space="preserve">委哥和梁总解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y393B11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.更换小内存版本
+2.更新小内存版本后不能开机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">释放6M TEE OS,custom/build/project/工程名.mk没有修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y833A7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.要求更换小内存版本
+2.不能写号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">释放6M TEE OS，使用工具在windows下分解的array.c格式有问题，导致
+Kph ta编译失败</t>
   </si>
   <si>
     <t xml:space="preserve">3643_LF708_navitel</t>
@@ -436,6 +463,21 @@
   </si>
   <si>
     <t xml:space="preserve">更换证书类型，更换密钥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c509-7151h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tkcoreos 跳转地址不对</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新了tz_init.c和tz_tkcore.h，设置启动地址自动跳转</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指纹不能使用，指纹读不到chip id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改了spi.c，更换指纹秘钥重新签名</t>
   </si>
   <si>
     <t xml:space="preserve">5025PH,5301PH,
@@ -677,14 +719,11 @@
   </sheetPr>
   <dimension ref="B4:B25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.2"/>
-  </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
@@ -800,18 +839,17 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.4279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.3488372093023"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.5162790697674"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.9348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,7 +877,7 @@
     </row>
     <row r="2" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180528</v>
@@ -848,10 +886,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180528</v>
@@ -972,19 +1010,18 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5023255813953"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8790697674419"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5209302325581"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2744186046512"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1145,19 +1182,18 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.0279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.2093023255814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.7348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.6558139534884"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,7 +1262,9 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="45.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B4" s="6" t="n">
         <v>20180605</v>
       </c>
@@ -1234,41 +1272,77 @@
         <v>28</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>20180608</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+    <row r="5" customFormat="false" ht="44.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>20180620</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>20180620</v>
+      </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+    <row r="6" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>20180619</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>20180619</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+    <row r="7" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>20180620</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>20180921</v>
+      </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,13 +1420,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="106.204651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="112.725581395349"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1502,18 +1575,17 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.5302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.2232558139535"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9209302325581"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,7 +1613,7 @@
     </row>
     <row r="2" customFormat="false" ht="70.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180529</v>
@@ -1550,10 +1622,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180529</v>
@@ -1680,14 +1752,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.7674418604651"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.7023255813953"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.2883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,19 +1786,19 @@
     </row>
     <row r="2" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180523</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180525</v>
@@ -1736,7 +1807,7 @@
     </row>
     <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180530</v>
@@ -1745,10 +1816,10 @@
         <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>20180530</v>
@@ -1866,13 +1937,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.0093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.3302325581395"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.8418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.2837209302326"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,16 +1969,16 @@
     </row>
     <row r="2" customFormat="false" ht="34.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180530</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -1917,7 +1986,7 @@
     </row>
     <row r="3" customFormat="false" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180530</v>
@@ -2047,12 +2116,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.7813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="106.204651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="112.725581395349"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,18 +2268,17 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.2418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.9023255813954"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.7023255813953"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.6093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,19 +2306,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180525</v>
@@ -2261,19 +2327,19 @@
     </row>
     <row r="3" customFormat="false" ht="36.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180524</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>20180524</v>
@@ -2282,41 +2348,65 @@
     </row>
     <row r="4" customFormat="false" ht="34.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>20180605</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>20180605</v>
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+    <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>20180609</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>20180611</v>
+      </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+    <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>20180621</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>20180621</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -382,6 +382,12 @@
 Kph ta编译失败</t>
   </si>
   <si>
+    <t xml:space="preserve">y81933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">释放6M TEE OS，protect_f没有配好</t>
+  </si>
+  <si>
     <t xml:space="preserve">3643_LF708_navitel</t>
   </si>
   <si>
@@ -394,10 +400,16 @@
     <t xml:space="preserve">更换了9ef77781-****.ta</t>
   </si>
   <si>
+    <t xml:space="preserve">LF730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1开机问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在重启测试的时候会概率性卡在logo界面开不了机</t>
+  </si>
+  <si>
     <t xml:space="preserve">V662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1开机问题</t>
   </si>
   <si>
     <t xml:space="preserve">手机关机后可以开机，重新
@@ -724,6 +736,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+  </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
@@ -844,12 +859,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.5162790697674"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.9348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.6279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.1627906976744"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,7 +893,7 @@
     </row>
     <row r="2" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180528</v>
@@ -886,10 +902,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180528</v>
@@ -1010,18 +1026,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5209302325581"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.3813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1182,18 +1199,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.7348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.6558139534884"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.7209302325581"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.5023255813954"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,17 +1359,29 @@
         <v>44</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20180921</v>
+        <v>20180621</v>
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+    <row r="8" customFormat="false" ht="41.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>20180622</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>20180622</v>
+      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,12 +1450,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="112.725581395349"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="116.172093023256"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,17 +1606,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.2232558139535"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.1906976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1613,7 +1645,7 @@
     </row>
     <row r="2" customFormat="false" ht="70.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180529</v>
@@ -1622,21 +1654,29 @@
         <v>32</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180529</v>
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
+    <row r="3" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>20180622</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1752,13 +1792,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.2883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.6418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,19 +1827,19 @@
     </row>
     <row r="2" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180523</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180525</v>
@@ -1807,7 +1848,7 @@
     </row>
     <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180530</v>
@@ -1816,10 +1857,10 @@
         <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>20180530</v>
@@ -1937,11 +1978,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.8418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.2837209302326"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.706976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.3162790697674"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.8837209302326"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,16 +2012,16 @@
     </row>
     <row r="2" customFormat="false" ht="34.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180530</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -1986,7 +2029,7 @@
     </row>
     <row r="3" customFormat="false" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180530</v>
@@ -2116,10 +2159,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5023255813953"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="112.725581395349"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="116.172093023256"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2274,11 +2319,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.7023255813953"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.6093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.0558139534884"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.0883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,19 +2352,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180525</v>
@@ -2327,19 +2373,19 @@
     </row>
     <row r="3" customFormat="false" ht="36.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180524</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>20180524</v>
@@ -2348,19 +2394,19 @@
     </row>
     <row r="4" customFormat="false" ht="34.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>20180605</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>20180605</v>
@@ -2369,19 +2415,19 @@
     </row>
     <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>20180609</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>20180611</v>
@@ -2390,19 +2436,19 @@
     </row>
     <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>20180621</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>20180621</v>

--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -388,6 +388,21 @@
     <t xml:space="preserve">释放6M TEE OS，protect_f没有配好</t>
   </si>
   <si>
+    <t xml:space="preserve">y3976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS测试不过</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新9ef****.ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y81935_E350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更换小内存 </t>
+  </si>
+  <si>
     <t xml:space="preserve">3643_LF708_navitel</t>
   </si>
   <si>
@@ -407,6 +422,10 @@
   </si>
   <si>
     <t xml:space="preserve">在重启测试的时候会概率性卡在logo界面开不了机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第一次分析是与TEE无关，客户修改了
+Bq24296模块的问题后发现是UART冲突</t>
   </si>
   <si>
     <t xml:space="preserve">V662</t>
@@ -737,7 +756,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,13 +878,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.6279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.1627906976744"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.5488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.5767441860465"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,7 +912,7 @@
     </row>
     <row r="2" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180528</v>
@@ -902,10 +921,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180528</v>
@@ -1032,13 +1051,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.3813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.3627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.1953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1199,19 +1218,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.7209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.5023255813954"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.7813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="71.4976744186046"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,22 +1403,46 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+    <row r="9" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>20180702</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>20180702</v>
+      </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+    <row r="10" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>20180721</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>20180720</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,13 +1493,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="116.172093023256"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.4279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="130.693023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,19 +1648,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.1906976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.6837209302326"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.4279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,7 +1688,7 @@
     </row>
     <row r="2" customFormat="false" ht="70.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180529</v>
@@ -1654,31 +1697,35 @@
         <v>32</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180529</v>
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="49.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180622</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>20180702</v>
+      </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,19 +1834,19 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.6418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.5488372093023"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,19 +1874,19 @@
     </row>
     <row r="2" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180523</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180525</v>
@@ -1848,7 +1895,7 @@
     </row>
     <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180530</v>
@@ -1857,17 +1904,17 @@
         <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>20180530</v>
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -1973,18 +2020,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.3162790697674"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.8837209302326"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.7162790697675"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.6558139534884"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,16 +2059,16 @@
     </row>
     <row r="2" customFormat="false" ht="34.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180530</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2029,7 +2076,7 @@
     </row>
     <row r="3" customFormat="false" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180530</v>
@@ -2048,7 +2095,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="38.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -2159,12 +2206,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.86046511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.3674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="116.172093023256"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.4279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="130.693023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,17 +2361,17 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.0558139534884"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.0883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.4697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.2372093023256"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,19 +2399,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180525</v>
@@ -2373,19 +2420,19 @@
     </row>
     <row r="3" customFormat="false" ht="36.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180524</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>20180524</v>
@@ -2394,19 +2441,19 @@
     </row>
     <row r="4" customFormat="false" ht="34.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>20180605</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>20180605</v>
@@ -2415,19 +2462,19 @@
     </row>
     <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>20180609</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>20180611</v>
@@ -2436,19 +2483,19 @@
     </row>
     <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>20180621</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>20180621</v>

--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -403,6 +403,15 @@
     <t xml:space="preserve">更换小内存 </t>
   </si>
   <si>
+    <t xml:space="preserve">Y30113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2指纹问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指纹注册不到时钟</t>
+  </si>
+  <si>
     <t xml:space="preserve">3643_LF708_navitel</t>
   </si>
   <si>
@@ -485,9 +494,6 @@
   </si>
   <si>
     <t xml:space="preserve">A756-8091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2指纹问题</t>
   </si>
   <si>
     <t xml:space="preserve">拉完代码后指纹不能用</t>
@@ -756,7 +762,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,19 +878,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.5488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.5767441860465"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.1348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.6558139534884"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,7 +918,7 @@
     </row>
     <row r="2" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180528</v>
@@ -921,10 +927,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180528</v>
@@ -1051,13 +1057,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.4279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.3627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.1953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.5162790697674"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.3162790697674"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.2883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.0744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1218,19 +1224,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.7813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="71.4976744186046"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.4697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.9953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="75.8046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,11 +1451,19 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
+    <row r="11" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>20180725</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1493,13 +1507,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.4279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="130.693023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7023255813953"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.5162790697674"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="138.813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,13 +1668,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.6837209302326"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.4279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="80.2372093023256"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.5162790697674"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,7 +1702,7 @@
     </row>
     <row r="2" customFormat="false" ht="70.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180529</v>
@@ -1697,10 +1711,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180529</v>
@@ -1709,19 +1723,19 @@
     </row>
     <row r="3" customFormat="false" ht="49.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180622</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>20180702</v>
@@ -1839,14 +1853,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.5488372093023"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.7488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.6232558139535"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,19 +1888,19 @@
     </row>
     <row r="2" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180523</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180525</v>
@@ -1895,7 +1909,7 @@
     </row>
     <row r="3" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180530</v>
@@ -1904,10 +1918,10 @@
         <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>20180530</v>
@@ -2025,13 +2039,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.7162790697675"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.6558139534884"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.1627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.3441860465116"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,16 +2073,16 @@
     </row>
     <row r="2" customFormat="false" ht="34.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180530</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2076,7 +2090,7 @@
     </row>
     <row r="3" customFormat="false" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180530</v>
@@ -2206,12 +2220,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.4279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="130.693023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7023255813953"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.5162790697674"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="138.813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2361,17 +2375,17 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.4697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.2372093023256"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.5488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.6837209302326"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3395348837209"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,19 +2413,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180525</v>
@@ -2420,19 +2434,19 @@
     </row>
     <row r="3" customFormat="false" ht="36.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20180524</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F3" s="6" t="n">
         <v>20180524</v>
@@ -2441,19 +2455,19 @@
     </row>
     <row r="4" customFormat="false" ht="34.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>20180605</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>20180605</v>
@@ -2462,19 +2476,19 @@
     </row>
     <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>20180609</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>20180611</v>
@@ -2483,19 +2497,19 @@
     </row>
     <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>20180621</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>20180621</v>

--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="110">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -319,6 +319,20 @@
     <t xml:space="preserve">更换20M的内存，原是64M</t>
   </si>
   <si>
+    <t xml:space="preserve">MM8009B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2指纹问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">概率性的读不到指纹id
+1.指纹启动过早
+2.指纹一直来中端</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分析log与我们无关，指纹的人在解决</t>
+  </si>
+  <si>
     <t xml:space="preserve">K706G_3846_MITO T85_HYD</t>
   </si>
   <si>
@@ -409,9 +423,6 @@
   </si>
   <si>
     <t xml:space="preserve">Y30113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2指纹问题</t>
   </si>
   <si>
     <t xml:space="preserve">1.指纹注册不到时钟
@@ -731,7 +742,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,19 +838,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.7348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.3953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.5023255813953"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.9627906976744"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.9953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.6093023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -886,13 +897,25 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+    <row r="3" customFormat="false" ht="51.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>20180707</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>20180709</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1000,19 +1023,19 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.4697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.3581395348837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.9488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.8186046511628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,19 +1063,19 @@
     </row>
     <row r="2" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180524</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180524</v>
@@ -1061,19 +1084,19 @@
     </row>
     <row r="3" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180601</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180601</v>
@@ -1082,19 +1105,19 @@
     </row>
     <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180608</v>
@@ -1103,19 +1126,19 @@
     </row>
     <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180620</v>
@@ -1124,19 +1147,19 @@
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180619</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180619</v>
@@ -1145,19 +1168,19 @@
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180621</v>
@@ -1166,19 +1189,19 @@
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180622</v>
@@ -1187,7 +1210,7 @@
     </row>
     <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>20180702</v>
@@ -1196,10 +1219,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180702</v>
@@ -1208,7 +1231,7 @@
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>20180721</v>
@@ -1217,10 +1240,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180720</v>
@@ -1229,7 +1252,7 @@
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>20180723</v>
@@ -1238,10 +1261,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180723</v>
@@ -1250,19 +1273,19 @@
     </row>
     <row r="12" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>20180725</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180726</v>
@@ -1271,19 +1294,19 @@
     </row>
     <row r="13" customFormat="false" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>20180731</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>20180731</v>
@@ -1292,19 +1315,19 @@
     </row>
     <row r="14" customFormat="false" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>20180802</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>20180802</v>
@@ -1340,13 +1363,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.7348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="147.427906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.9627906976744"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="151.860465116279"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,13 +1524,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.2837209302326"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.7348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.8651162790698"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.9627906976744"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,19 +1558,19 @@
     </row>
     <row r="2" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180529</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180529</v>
@@ -1556,19 +1579,19 @@
     </row>
     <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180702</v>
@@ -1577,19 +1600,19 @@
     </row>
     <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180725</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180725</v>
@@ -1598,19 +1621,19 @@
     </row>
     <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180730</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180730</v>
@@ -1710,13 +1733,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.7302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="69.4093023255814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.6976744186047"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="71.4976744186046"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,19 +1767,19 @@
     </row>
     <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180530</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180531</v>
@@ -1765,7 +1788,7 @@
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180530</v>
@@ -1774,10 +1797,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180531</v>
@@ -1786,19 +1809,19 @@
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180723</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180724</v>
@@ -1907,12 +1930,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.7348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="147.427906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.9627906976744"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="151.860465116279"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2067,12 +2090,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.6232558139535"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.2558139534884"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.2232558139535"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.0976744186047"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,19 +2123,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180525</v>
@@ -2121,19 +2144,19 @@
     </row>
     <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180524</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180524</v>
@@ -2142,19 +2165,19 @@
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180605</v>
@@ -2163,19 +2186,19 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180609</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180611</v>
@@ -2184,19 +2207,19 @@
     </row>
     <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180621</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180621</v>
@@ -2296,13 +2319,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.9627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.8558139534884"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.4418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.5767441860465"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2330,19 +2353,19 @@
     </row>
     <row r="2" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180528</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180528</v>
@@ -2351,19 +2374,19 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180725</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180725</v>

--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -325,9 +325,9 @@
     <t xml:space="preserve">2指纹问题</t>
   </si>
   <si>
-    <t xml:space="preserve">概率性的读不到指纹id
+    <t xml:space="preserve">概率性的读不到指纹id，分析log原因如下：
 1.指纹启动过早
-2.指纹一直来中端</t>
+2.指纹一直来中断</t>
   </si>
   <si>
     <t xml:space="preserve">分析log与我们无关，指纹的人在解决</t>
@@ -454,10 +454,12 @@
     <t xml:space="preserve">1开机问题</t>
   </si>
   <si>
-    <t xml:space="preserve">何如差分包后不能开机</t>
-  </si>
-  <si>
-    <t xml:space="preserve">device目录的patch没有合</t>
+    <t xml:space="preserve">1.合入差分包后不能开机
+2.写号失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.device目录的patch没有合
+2.远程操作了一下，写号是可以的，怀疑是他们操作不当，暂未解决</t>
   </si>
   <si>
     <t xml:space="preserve">3643_LF708_navitel</t>
@@ -500,6 +502,12 @@
     <t xml:space="preserve">roco工程师没有使用对应kph ta导致</t>
   </si>
   <si>
+    <t xml:space="preserve">K706G_4251_NB851_HQSJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">该项目第二个keybox分解后写号失败</t>
+  </si>
+  <si>
     <t xml:space="preserve">T758-8071C</t>
   </si>
   <si>
@@ -585,7 +593,7 @@
     <t xml:space="preserve">更换6M TEE OS</t>
   </si>
   <si>
-    <t xml:space="preserve">39平台</t>
+    <t xml:space="preserve">35平台</t>
   </si>
   <si>
     <t xml:space="preserve">TEE概率性跳转不过去延长开机时间</t>
@@ -688,7 +696,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -717,6 +725,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -736,13 +748,13 @@
   </sheetPr>
   <dimension ref="B4:B18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,19 +850,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.7674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.9627906976744"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.9953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.6093023255814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.6279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.7162790697675"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.8418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1021,21 +1033,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.9488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.8186046511628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.5488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.4046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,16 +1335,14 @@
       <c r="C14" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>20180802</v>
-      </c>
-    </row>
+    </row>
+    <row r="15" customFormat="false" ht="24.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C13" type="list">
@@ -1357,19 +1367,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1674418604651"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.9627906976744"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="151.860465116279"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.1953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="156.53488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,19 +1528,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.8651162790698"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.9627906976744"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="90.5720930232558"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.1953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,11 +1650,19 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+    <row r="6" customFormat="false" ht="30.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>20180804</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1727,19 +1745,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.6976744186047"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="71.4976744186046"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.7906976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="73.5906976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,19 +1785,19 @@
     </row>
     <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180530</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180531</v>
@@ -1788,7 +1806,7 @@
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180530</v>
@@ -1809,7 +1827,7 @@
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180723</v>
@@ -1818,10 +1836,10 @@
         <v>66</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180724</v>
@@ -1924,18 +1942,18 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1674418604651"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.9627906976744"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="151.860465116279"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.1953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="156.53488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2084,18 +2102,18 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.2232558139535"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.0976744186047"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.9488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.0697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,19 +2141,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180525</v>
@@ -2144,7 +2162,7 @@
     </row>
     <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180524</v>
@@ -2153,10 +2171,10 @@
         <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180524</v>
@@ -2165,7 +2183,7 @@
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -2174,10 +2192,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180605</v>
@@ -2186,7 +2204,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180609</v>
@@ -2195,10 +2213,10 @@
         <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180611</v>
@@ -2207,7 +2225,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180621</v>
@@ -2216,10 +2234,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180621</v>
@@ -2313,19 +2331,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.4418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.5767441860465"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.0418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.4232558139535"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,7 +2371,7 @@
     </row>
     <row r="2" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180528</v>
@@ -2362,10 +2380,10 @@
         <v>35</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180528</v>
@@ -2374,7 +2392,7 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180725</v>
@@ -2383,17 +2401,17 @@
         <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180725</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="27.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>

--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -333,10 +333,16 @@
     <t xml:space="preserve">分析log与我们无关，指纹的人在解决</t>
   </si>
   <si>
+    <t xml:space="preserve">MM3733-M5022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Keybox问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snwriter工具写号失败，原因是SDRPMB状态不正确</t>
+  </si>
+  <si>
     <t xml:space="preserve">K706G_3846_MITO T85_HYD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Keybox问题</t>
   </si>
   <si>
     <t xml:space="preserve">keybox分解后写入失败</t>
@@ -448,7 +454,7 @@
     <t xml:space="preserve">dts文件没有配好</t>
   </si>
   <si>
-    <t xml:space="preserve">Y501</t>
+    <t xml:space="preserve">Y5011</t>
   </si>
   <si>
     <t xml:space="preserve">1开机问题</t>
@@ -459,7 +465,37 @@
   </si>
   <si>
     <t xml:space="preserve">1.device目录的patch没有合
-2.远程操作了一下，写号是可以的，怀疑是他们操作不当，暂未解决</t>
+2.没有打开编译array.c的开关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李志友</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y30110_S8551E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8其他问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">漏合了device/mediatek/目录下的差分包导致TEE状态不正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合入后解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李飞珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y81918_KF4501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原RPMB_KEY没有初始化直接传给TEE，客户更新mtk pl patch后，导致rpmb_key有改动影响rpmb分区使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在tee.bin中dump出原rpmb_key的值，在preloader中写死rpmb_key的值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章龙/谢洪涛</t>
   </si>
   <si>
     <t xml:space="preserve">3643_LF708_navitel</t>
@@ -508,6 +544,9 @@
     <t xml:space="preserve">该项目第二个keybox分解后写号失败</t>
   </si>
   <si>
+    <t xml:space="preserve">拆分keybox后kkn_pri.pem保存的不对导致</t>
+  </si>
+  <si>
     <t xml:space="preserve">T758-8071C</t>
   </si>
   <si>
@@ -532,6 +571,15 @@
   <si>
     <t xml:space="preserve">1.开机问题是由bmi160_acc_spi_probe驱动访问spi导致的
 2.重力传感器不能使用是由于节点读不到spi导致，修改spi.c解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T819-Cellallure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合入代码后开不了机，pld等库都不能使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加入漏合的代码解决</t>
   </si>
   <si>
     <t xml:space="preserve">C719-8045C</t>
@@ -696,7 +744,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -729,6 +777,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -754,7 +806,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,19 +902,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.6279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.1953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.7162790697675"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.8418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7767441860465"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.7302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.0093023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -930,13 +982,23 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
+    <row r="4" customFormat="false" ht="38.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>20180809</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="n">
+        <v>20180810</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,21 +1095,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.5488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.4046511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.9488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.2837209302326"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,7 +1138,7 @@
     </row>
     <row r="2" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180524</v>
@@ -1084,10 +1147,10 @@
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180524</v>
@@ -1096,19 +1159,19 @@
     </row>
     <row r="3" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180601</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180601</v>
@@ -1117,7 +1180,7 @@
     </row>
     <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -1126,10 +1189,10 @@
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180608</v>
@@ -1138,19 +1201,19 @@
     </row>
     <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180620</v>
@@ -1159,19 +1222,19 @@
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180619</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180619</v>
@@ -1180,19 +1243,19 @@
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180621</v>
@@ -1201,19 +1264,19 @@
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180622</v>
@@ -1222,7 +1285,7 @@
     </row>
     <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>20180702</v>
@@ -1231,10 +1294,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180702</v>
@@ -1243,7 +1306,7 @@
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>20180721</v>
@@ -1252,10 +1315,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180720</v>
@@ -1264,7 +1327,7 @@
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>20180723</v>
@@ -1273,10 +1336,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180723</v>
@@ -1285,7 +1348,7 @@
     </row>
     <row r="12" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>20180725</v>
@@ -1294,10 +1357,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180726</v>
@@ -1306,43 +1369,94 @@
     </row>
     <row r="13" customFormat="false" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>20180731</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>20180731</v>
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>20180802</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="24.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>70</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>20180806</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>20180806</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>20180806</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="40.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>20180807</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>20180809</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C13" type="list">
@@ -1368,18 +1482,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.7674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.1953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="156.53488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4558139534884"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.4883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="176.348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,19 +1642,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="90.5720930232558"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.1953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4558139534884"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="102.139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.4883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,19 +1682,19 @@
     </row>
     <row r="2" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180529</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180529</v>
@@ -1589,19 +1703,19 @@
     </row>
     <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180702</v>
@@ -1610,19 +1724,19 @@
     </row>
     <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180725</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180725</v>
@@ -1631,7 +1745,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180730</v>
@@ -1640,10 +1754,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180730</v>
@@ -1652,7 +1766,7 @@
     </row>
     <row r="6" customFormat="false" ht="30.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180804</v>
@@ -1661,10 +1775,14 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>20180806</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,19 +1863,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.7906976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="73.5906976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.4046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.8186046511628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1785,19 +1903,19 @@
     </row>
     <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180530</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180531</v>
@@ -1806,7 +1924,7 @@
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180530</v>
@@ -1815,10 +1933,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180531</v>
@@ -1827,32 +1945,44 @@
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180723</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180724</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+    <row r="5" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>20180806</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>20180806</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,12 +2078,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.1953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="156.53488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.4883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="176.348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2103,17 +2233,18 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.9488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.0697674418605"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.3302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="75.4372093023256"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,19 +2272,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180525</v>
@@ -2162,19 +2293,19 @@
     </row>
     <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180524</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180524</v>
@@ -2183,7 +2314,7 @@
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -2192,10 +2323,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180605</v>
@@ -2204,19 +2335,19 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180609</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180611</v>
@@ -2225,7 +2356,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180621</v>
@@ -2234,10 +2365,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180621</v>
@@ -2331,19 +2462,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.0418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.4232558139535"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.5627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.9302325581395"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2371,19 +2502,19 @@
     </row>
     <row r="2" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180528</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180528</v>
@@ -2392,19 +2523,19 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180725</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180725</v>

--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -342,6 +342,30 @@
     <t xml:space="preserve">snwriter工具写号失败，原因是SDRPMB状态不正确</t>
   </si>
   <si>
+    <t xml:space="preserve">更新了tz_tkcore.c以及tkcore_wp.c后解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM5022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrout memery 超64M，释放小内存后开不了机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对方工程师合入代码有误</t>
+  </si>
+  <si>
+    <t xml:space="preserve">伟正</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM3902B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指纹不能使用，签名无效，存储区域不正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重新签名指纹ta，修改tz_tkcore.c</t>
+  </si>
+  <si>
     <t xml:space="preserve">K706G_3846_MITO T85_HYD</t>
   </si>
   <si>
@@ -496,6 +520,18 @@
   </si>
   <si>
     <t xml:space="preserve">章龙/谢洪涛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江元Y393B11-忆博通V51B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.产线问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新最新上传工具uploader_2.2.4后上传失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查数据中有其他项目的*.pubkey存在，删掉之后再上传解决</t>
   </si>
   <si>
     <t xml:space="preserve">3643_LF708_navitel</t>
@@ -544,7 +580,7 @@
     <t xml:space="preserve">该项目第二个keybox分解后写号失败</t>
   </si>
   <si>
-    <t xml:space="preserve">拆分keybox后kkn_pri.pem保存的不对导致</t>
+    <t xml:space="preserve">拆分keybox后kkb_pri.pem保存的不对导致</t>
   </si>
   <si>
     <t xml:space="preserve">T758-8071C</t>
@@ -580,6 +616,12 @@
   </si>
   <si>
     <t xml:space="preserve">加入漏合的代码解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指纹功耗过大</t>
   </si>
   <si>
     <t xml:space="preserve">C719-8045C</t>
@@ -806,7 +848,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,19 +944,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7767441860465"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.4883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.7302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.0093023255814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.0418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.7627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.3162790697674"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.0418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -995,29 +1037,59 @@
       <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F4" s="3" t="n">
-        <v>20180810</v>
+        <v>20180813</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+    <row r="5" customFormat="false" ht="40.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>20180814</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>20180814</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="34.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>20180816</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>20180817</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
@@ -1095,22 +1167,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.9488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.2837209302326"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1023255813953"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.3627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.4046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,7 +1210,7 @@
     </row>
     <row r="2" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180524</v>
@@ -1147,10 +1219,10 @@
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180524</v>
@@ -1159,19 +1231,19 @@
     </row>
     <row r="3" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180601</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180601</v>
@@ -1180,7 +1252,7 @@
     </row>
     <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -1189,10 +1261,10 @@
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180608</v>
@@ -1201,19 +1273,19 @@
     </row>
     <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180620</v>
@@ -1222,19 +1294,19 @@
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180619</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180619</v>
@@ -1243,19 +1315,19 @@
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180621</v>
@@ -1264,19 +1336,19 @@
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180622</v>
@@ -1285,7 +1357,7 @@
     </row>
     <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>20180702</v>
@@ -1294,10 +1366,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180702</v>
@@ -1306,7 +1378,7 @@
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>20180721</v>
@@ -1315,10 +1387,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180720</v>
@@ -1327,7 +1399,7 @@
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>20180723</v>
@@ -1336,10 +1408,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180723</v>
@@ -1348,7 +1420,7 @@
     </row>
     <row r="12" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>20180725</v>
@@ -1357,10 +1429,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180726</v>
@@ -1369,19 +1441,19 @@
     </row>
     <row r="13" customFormat="false" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>20180731</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>20180731</v>
@@ -1390,53 +1462,53 @@
     </row>
     <row r="14" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>20180802</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="40.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>20180807</v>
@@ -1445,16 +1517,36 @@
         <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>20180809</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>20180816</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>20180816</v>
       </c>
     </row>
   </sheetData>
@@ -1487,13 +1579,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4558139534884"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.4883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="176.348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.0418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="192.962790697674"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,18 +1735,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4558139534884"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="102.139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.4883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="111.618604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.0418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,19 +1774,19 @@
     </row>
     <row r="2" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180529</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180529</v>
@@ -1703,19 +1795,19 @@
     </row>
     <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180702</v>
@@ -1724,19 +1816,19 @@
     </row>
     <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180725</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180725</v>
@@ -1745,7 +1837,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180730</v>
@@ -1754,10 +1846,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180730</v>
@@ -1766,7 +1858,7 @@
     </row>
     <row r="6" customFormat="false" ht="30.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180804</v>
@@ -1775,10 +1867,10 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180806</v>
@@ -1863,19 +1955,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.4046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.8186046511628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="84.5441860465116"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.6976744186047"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,19 +1995,19 @@
     </row>
     <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180530</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180531</v>
@@ -1924,7 +2016,7 @@
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180530</v>
@@ -1933,10 +2025,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180531</v>
@@ -1945,19 +2037,19 @@
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180723</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180724</v>
@@ -1966,30 +2058,38 @@
     </row>
     <row r="5" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180806</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180806</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+    <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>20180816</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2073,17 +2173,17 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.4883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="176.348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.0418604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="192.962790697674"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,18 +2333,18 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.3302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="75.4372093023256"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.3627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.4511627906977"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,19 +2372,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180525</v>
@@ -2293,19 +2393,19 @@
     </row>
     <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180524</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180524</v>
@@ -2314,7 +2414,7 @@
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -2323,10 +2423,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180605</v>
@@ -2335,19 +2435,19 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180609</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180611</v>
@@ -2356,7 +2456,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180621</v>
@@ -2365,10 +2465,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180621</v>
@@ -2463,18 +2563,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.5627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.9302325581395"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.0976744186047"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="74.2046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,19 +2602,19 @@
     </row>
     <row r="2" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180528</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180528</v>
@@ -2523,19 +2623,19 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180725</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180725</v>

--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,18 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="沸石" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="江元（一）" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="江元（二）" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="江元（隆科）" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="麦穗（一）" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="麦穗（二）" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="麦穗（昶音）" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="泽盺" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="江元" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="隆科" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="麦穗" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="麦穗（昶音）" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="泽盺" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="TCL" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="159">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -366,6 +365,15 @@
     <t xml:space="preserve">重新签名指纹ta，修改tz_tkcore.c</t>
   </si>
   <si>
+    <t xml:space="preserve">MM3721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反馈写key失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新了sdrpmb配置</t>
+  </si>
+  <si>
     <t xml:space="preserve">K706G_3846_MITO T85_HYD</t>
   </si>
   <si>
@@ -574,13 +582,31 @@
     <t xml:space="preserve">roco工程师没有使用对应kph ta导致</t>
   </si>
   <si>
-    <t xml:space="preserve">K706G_4251_NB851_HQSJ</t>
-  </si>
-  <si>
     <t xml:space="preserve">该项目第二个keybox分解后写号失败</t>
   </si>
   <si>
     <t xml:space="preserve">拆分keybox后kkb_pri.pem保存的不对导致</t>
+  </si>
+  <si>
+    <t xml:space="preserve">存储区域没有配好</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gms 测试key的项目一直不过，提示 Failed to launch shell driver service_default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">客户自己解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反馈写keybox失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protect_f配置有问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反馈指纹读不到读不到chipid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改spi.c的中断注册函数</t>
   </si>
   <si>
     <t xml:space="preserve">T758-8071C</t>
@@ -624,6 +650,9 @@
     <t xml:space="preserve">指纹功耗过大</t>
   </si>
   <si>
+    <t xml:space="preserve">现场确认是reset引脚被拉低，已经确认与tee无关</t>
+  </si>
+  <si>
     <t xml:space="preserve">C719-8045C</t>
   </si>
   <si>
@@ -672,6 +701,12 @@
     <t xml:space="preserve">修改了spi.c，更换指纹秘钥重新签名</t>
   </si>
   <si>
+    <t xml:space="preserve">A809-DK002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手机由机主模式切换到访客模式后，再切换回机主模式，之前建立的指纹会丢失</t>
+  </si>
+  <si>
     <t xml:space="preserve">5025PH,5301PH,
 5301AM,5303KH</t>
   </si>
@@ -690,6 +725,21 @@
   </si>
   <si>
     <t xml:space="preserve">更换tee.bin文件解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">问题描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5081Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.其他问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新项目调试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">远程调试</t>
   </si>
 </sst>
 </file>
@@ -786,7 +836,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -823,6 +873,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -848,7 +902,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,18 +999,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.0418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.7627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.3162790697674"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.0418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.1162790697675"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.0697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.3953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.1348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1091,13 +1145,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+    <row r="7" customFormat="false" ht="27.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>20180821</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>20180821</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,20 +1235,20 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1023255813953"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7023255813953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.3627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.4046511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.4279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.2976744186047"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="99.1860465116279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,7 +1276,7 @@
     </row>
     <row r="2" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180524</v>
@@ -1219,10 +1285,10 @@
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180524</v>
@@ -1231,19 +1297,19 @@
     </row>
     <row r="3" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180601</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180601</v>
@@ -1252,7 +1318,7 @@
     </row>
     <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -1261,10 +1327,10 @@
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180608</v>
@@ -1273,19 +1339,19 @@
     </row>
     <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180620</v>
@@ -1294,19 +1360,19 @@
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180619</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180619</v>
@@ -1315,19 +1381,19 @@
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180621</v>
@@ -1336,19 +1402,19 @@
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180622</v>
@@ -1357,7 +1423,7 @@
     </row>
     <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>20180702</v>
@@ -1366,10 +1432,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180702</v>
@@ -1378,7 +1444,7 @@
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>20180721</v>
@@ -1387,10 +1453,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180720</v>
@@ -1399,7 +1465,7 @@
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>20180723</v>
@@ -1408,10 +1474,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180723</v>
@@ -1420,7 +1486,7 @@
     </row>
     <row r="12" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>20180725</v>
@@ -1429,10 +1495,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180726</v>
@@ -1441,19 +1507,19 @@
     </row>
     <row r="13" customFormat="false" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>20180731</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>20180731</v>
@@ -1462,53 +1528,53 @@
     </row>
     <row r="14" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>20180802</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="40.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>20180807</v>
@@ -1517,33 +1583,33 @@
         <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>20180809</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>20180816</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>20180816</v>
@@ -1574,18 +1640,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.5348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.5488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.0418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="192.962790697674"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7395348837209"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7162790697674"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.4651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.353488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.3813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,88 +1677,192 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+    <row r="2" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>20180529</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>20180529</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+    <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>20180622</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>20180702</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+    <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>20180725</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>20180725</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+    <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>20180730</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>20180730</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+    <row r="6" customFormat="false" ht="30.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>4251</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>20180804</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>20180806</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+    <row r="7" customFormat="false" ht="30.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>4236</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>20180821</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>20180821</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="3" t="n">
+        <v>20180822</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>20180822</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+    <row r="9" customFormat="false" ht="27.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>4637</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>20180823</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>20180823</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="30.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="3" t="n">
+        <v>20180823</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>20180823</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -1701,7 +1871,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -1735,18 +1905,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.5348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="111.618604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.0418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.6279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.246511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="89.5906976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="96.3581395348837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1772,116 +1942,122 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>20180529</v>
+        <v>20180530</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>94</v>
+        <v>118</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>20180529</v>
+        <v>20180531</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>20180622</v>
+        <v>20180530</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>98</v>
+        <v>49</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>20180702</v>
+        <v>20180531</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>20180725</v>
+        <v>20180723</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>20180725</v>
+        <v>20180724</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>20180730</v>
+        <v>20180806</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>20180806</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>20180816</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>20180821</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="n">
+        <v>20180822</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>20180730</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="30.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>20180804</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>20180806</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1953,21 +2129,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.506976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="84.5441860465116"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.6976744186047"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.9116279069768"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="87.4976744186047"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,112 +2169,124 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>20180530</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>111</v>
+        <v>20180519</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>20180531</v>
+        <v>20180525</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>20180530</v>
+        <v>20180524</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>136</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>20180531</v>
+        <v>20180524</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>20180723</v>
+        <v>20180605</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>115</v>
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>20180724</v>
+        <v>20180605</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>20180806</v>
+        <v>20180609</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>20180806</v>
+        <v>20180611</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>20180816</v>
+        <v>20180621</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>20180621</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
+    <row r="7" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>20180821</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -2148,9 +2336,18 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C12" type="list">
+    <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C13" type="list">
       <formula1>"1开机问题,2指纹问题,3性能问题,4GMS测试问题,5产线问题,6 Keybox问题,7 支付问题 ,8 其他问题"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2173,17 +2370,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.5488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.0418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="192.962790697674"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.0418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.1627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="78.6372093023256"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,25 +2407,49 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+    <row r="2" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>20180528</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>20180528</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+    <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>20180725</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>20180725</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="27.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -2330,412 +2552,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.3627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.4511627906977"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8837209302326"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.2883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.1953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.846511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.9023255813953"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.5023255813953"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>20180519</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>20180525</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>20180524</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>20180524</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>20180605</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>20180605</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>20180609</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>20180611</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>20180621</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>20180621</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
+    <row r="2" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>20180823</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C13" type="list">
-      <formula1>"1开机问题,2指纹问题,3性能问题,4GMS测试问题,5产线问题,6 Keybox问题,7 支付问题 ,8 其他问题"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.0976744186047"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="74.2046511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>20180528</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>20180528</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>20180725</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>20180725</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="27.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C12" type="list">
-      <formula1>"1开机问题,2指纹问题,3性能问题,4GMS测试问题,5产线问题,6 Keybox问题,7 支付问题 ,8 其他问题"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="160">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t xml:space="preserve">现场确认是reset引脚被拉低，已经确认与tee无关</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AndroidServices没有起来，重新编译后解决</t>
   </si>
   <si>
     <t xml:space="preserve">C719-8045C</t>
@@ -902,7 +905,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1004,13 +1007,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.1162790697675"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.0697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.3953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.1348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.8372093023256"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.4046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.9953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.2418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1236,19 +1239,19 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.2976744186047"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="99.1860465116279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.2697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="102.139534883721"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,13 +1648,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7395348837209"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7162790697674"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.4651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.353488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.3813953488372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.5767441860465"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.6697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1905,18 +1908,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.6279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.246511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="89.5906976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="96.3581395348837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.4883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="92.2976744186047"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="99.3116279069767"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2058,8 +2061,12 @@
       <c r="D7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>20180823</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,19 +2138,19 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.9116279069768"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="87.4976744186047"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.0744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.1302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.0837209302326"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2171,19 +2178,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180525</v>
@@ -2192,7 +2199,7 @@
     </row>
     <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180524</v>
@@ -2201,10 +2208,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180524</v>
@@ -2213,7 +2220,7 @@
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -2222,10 +2229,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180605</v>
@@ -2234,7 +2241,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180609</v>
@@ -2243,10 +2250,10 @@
         <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180611</v>
@@ -2255,7 +2262,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180621</v>
@@ -2264,10 +2271,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180621</v>
@@ -2276,7 +2283,7 @@
     </row>
     <row r="7" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180821</v>
@@ -2285,7 +2292,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2375,13 +2382,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.0418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.1627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="78.6372093023256"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.1302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.9767441860465"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,7 +2416,7 @@
     </row>
     <row r="2" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180528</v>
@@ -2418,10 +2425,10 @@
         <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180528</v>
@@ -2430,7 +2437,7 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180725</v>
@@ -2439,10 +2446,10 @@
         <v>79</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180725</v>
@@ -2554,20 +2561,20 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8837209302326"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.2883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.1953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.846511627907"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.9023255813953"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.353488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.6093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.8837209302326"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.706976744186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2581,7 +2588,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>19</v>
@@ -2595,19 +2602,22 @@
     </row>
     <row r="2" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>20180823</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>20180824</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2617,8 +2627,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -742,7 +742,7 @@
     <t xml:space="preserve">新项目调试</t>
   </si>
   <si>
-    <t xml:space="preserve">远程调试</t>
+    <t xml:space="preserve">远程调试,pld状态，gptest，写key，otrp测试正常</t>
   </si>
 </sst>
 </file>
@@ -905,7 +905,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,13 +1007,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.8372093023256"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.4046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.9953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.2418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.5627906976744"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.7441860465116"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.7162790697675"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.4697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1244,14 +1244,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.2697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="102.139534883721"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.1627906976744"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.3627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="105.218604651163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,13 +1648,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.5767441860465"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.6697674418605"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.306976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.9116279069768"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.9023255813954"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,13 +1913,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.4883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="92.2976744186047"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="99.3116279069767"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2279069767442"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="95.0046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="102.26511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2138,19 +2138,19 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.1302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.0837209302326"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7023255813953"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="81.4651162790698"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="92.7906976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,13 +2382,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.0279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.1302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.9767441860465"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.2232558139535"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="83.4372093023256"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,20 +2561,20 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.353488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.6093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.8837209302326"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.0883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.4837209302326"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.0744186046512"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2627,8 +2627,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -374,6 +374,19 @@
     <t xml:space="preserve">更新了sdrpmb配置</t>
   </si>
   <si>
+    <t xml:space="preserve">MM8009W_W50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1开机问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加GMS代码编译的版本开不了机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分析logcat是是zygote主函数抛出异常导致zygote进程起不来，让他们
+自己解决</t>
+  </si>
+  <si>
     <t xml:space="preserve">K706G_3846_MITO T85_HYD</t>
   </si>
   <si>
@@ -487,9 +500,6 @@
   </si>
   <si>
     <t xml:space="preserve">Y5011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1开机问题</t>
   </si>
   <si>
     <t xml:space="preserve">1.合入差分包后不能开机
@@ -609,6 +619,29 @@
     <t xml:space="preserve">修改spi.c的中断注册函数</t>
   </si>
   <si>
+    <t xml:space="preserve">反馈开机定屏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分析串口log是tkcoredrv没有起来，原因是内存没配好
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反馈写keybox失败，重新编debug版本是可以的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怀疑是user版本有问题，重新new解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8375w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反馈开机状态下连USB按复位键后一直重启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分析log是再跳tee的时候失败，teeos版本是0.8.5,
+更换最新版tee.bin解决</t>
+  </si>
+  <si>
     <t xml:space="preserve">T758-8071C</t>
   </si>
   <si>
@@ -656,6 +689,13 @@
     <t xml:space="preserve">AndroidServices没有起来，重新编译后解决</t>
   </si>
   <si>
+    <t xml:space="preserve">T680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">该项目需要复用另一个项目的库存机器去出货，需求删除原板子中掉已经写的
+Keybox</t>
+  </si>
+  <si>
     <t xml:space="preserve">C719-8045C</t>
   </si>
   <si>
@@ -743,6 +783,16 @@
   </si>
   <si>
     <t xml:space="preserve">远程调试,pld状态，gptest，写key，otrp测试正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.keybox问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手机进不去META模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">客户对META模式做了定制话，按照客户定制的代码逻辑修改了
+FtModule.cpp</t>
   </si>
 </sst>
 </file>
@@ -905,7 +955,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,18 +1052,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.5627906976744"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.7441860465116"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.7162790697675"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.4697674418605"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.906976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.7674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.4372093023256"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2976744186047"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1148,7 +1198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="27.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -1169,16 +1219,28 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" customFormat="false" ht="39.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>20180830</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>20180830</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -1236,22 +1298,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.1627906976744"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.3627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="105.218604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.446511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.6697674418605"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.4697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.9581395348837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,7 +1340,7 @@
     </row>
     <row r="2" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180524</v>
@@ -1288,10 +1349,10 @@
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180524</v>
@@ -1300,19 +1361,19 @@
     </row>
     <row r="3" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180601</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180601</v>
@@ -1321,7 +1382,7 @@
     </row>
     <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -1330,10 +1391,10 @@
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180608</v>
@@ -1342,19 +1403,19 @@
     </row>
     <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180620</v>
@@ -1363,19 +1424,19 @@
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180619</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180619</v>
@@ -1384,19 +1445,19 @@
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180621</v>
@@ -1405,19 +1466,19 @@
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180622</v>
@@ -1426,7 +1487,7 @@
     </row>
     <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>20180702</v>
@@ -1435,10 +1496,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180702</v>
@@ -1447,7 +1508,7 @@
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>20180721</v>
@@ -1456,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180720</v>
@@ -1468,7 +1529,7 @@
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>20180723</v>
@@ -1477,10 +1538,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180723</v>
@@ -1489,7 +1550,7 @@
     </row>
     <row r="12" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>20180725</v>
@@ -1498,10 +1559,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180726</v>
@@ -1510,19 +1571,19 @@
     </row>
     <row r="13" customFormat="false" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>20180731</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>20180731</v>
@@ -1531,53 +1592,53 @@
     </row>
     <row r="14" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>20180802</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="40.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>20180807</v>
@@ -1586,38 +1647,39 @@
         <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>20180809</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>20180816</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>20180816</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C13" type="list">
@@ -1640,21 +1702,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.306976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.9116279069768"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.9023255813954"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.553488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.4093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.2558139534884"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,19 +1744,19 @@
     </row>
     <row r="2" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180529</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180529</v>
@@ -1703,19 +1765,19 @@
     </row>
     <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180702</v>
@@ -1724,19 +1786,19 @@
     </row>
     <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180725</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180725</v>
@@ -1745,7 +1807,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180730</v>
@@ -1754,10 +1816,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180730</v>
@@ -1775,10 +1837,10 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180806</v>
@@ -1799,7 +1861,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180821</v>
@@ -1812,13 +1874,13 @@
         <v>20180822</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180822</v>
@@ -1836,10 +1898,10 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180823</v>
@@ -1855,10 +1917,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180823</v>
@@ -1866,22 +1928,64 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="9" t="n">
+        <v>3684</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>20180828</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>20180829</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="3" t="n">
+        <v>20180830</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>20180830</v>
+      </c>
       <c r="G12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="42.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>20180830</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>20180831</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1908,18 +2012,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="95.0046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="102.26511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7302325581395"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.6"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.6511627906977"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,19 +2051,19 @@
     </row>
     <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180530</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180531</v>
@@ -1968,7 +2072,7 @@
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180530</v>
@@ -1977,10 +2081,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180531</v>
@@ -1989,19 +2093,19 @@
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180723</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180724</v>
@@ -2010,19 +2114,19 @@
     </row>
     <row r="5" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180806</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180806</v>
@@ -2031,7 +2135,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180816</v>
@@ -2040,17 +2144,17 @@
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180821</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="n">
         <v>20180822</v>
@@ -2059,21 +2163,29 @@
         <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180823</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
+    <row r="8" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>20180829</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2144,13 +2256,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7023255813953"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="81.4651162790698"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="92.7906976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.9302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="95.4976744186046"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2178,19 +2290,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180525</v>
@@ -2199,19 +2311,19 @@
     </row>
     <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180524</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180524</v>
@@ -2220,7 +2332,7 @@
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -2229,10 +2341,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180605</v>
@@ -2241,19 +2353,19 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180609</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180611</v>
@@ -2262,7 +2374,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180621</v>
@@ -2271,10 +2383,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180621</v>
@@ -2283,7 +2395,7 @@
     </row>
     <row r="7" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180821</v>
@@ -2292,7 +2404,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2377,18 +2489,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.1348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.2232558139535"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="83.4372093023256"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3488372093023"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8232558139535"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.4651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.7302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="83.1255813953488"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,19 +2528,19 @@
     </row>
     <row r="2" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180528</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180528</v>
@@ -2437,19 +2549,19 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180725</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180725</v>
@@ -2559,22 +2671,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.0883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.4837209302326"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.5627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.2093023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.446511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2588,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>19</v>
@@ -2602,33 +2714,51 @@
     </row>
     <row r="2" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>20180823</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>20180824</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>20180827</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>20180828</v>
+      </c>
+    </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -954,9 +954,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5674418604651"/>
-  </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
@@ -1052,18 +1049,17 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.906976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.7674418604651"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.4372093023256"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2976744186047"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.7767441860465"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.1627906976744"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1300,19 +1296,18 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.446511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="15.6697674418605"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.4697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.9581395348837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3953488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.1906976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.5302325581395"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="21.4139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,18 +1700,17 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.553488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.4093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.2558139534884"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.4697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.6093023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1209302325581"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,13 +2011,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7302325581395"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.6511627906977"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.6511627906977"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="88.2372093023256"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,19 +2242,18 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.9302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="95.4976744186046"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.3906976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="98.3255813953488"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,7 +2389,7 @@
         <v>159</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>20180821</v>
+        <v>20180830</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
@@ -2494,13 +2485,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3488372093023"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8232558139535"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.4651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.7302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="83.1255813953488"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.2418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.3488372093023"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.6511627906977"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.953488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,20 +2663,20 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.5627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="58.2093023255814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.1627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.9302325581395"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.8139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2757,8 +2747,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="186">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -387,6 +387,24 @@
 自己解决</t>
   </si>
   <si>
+    <t xml:space="preserve">8022QM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反应概率性开机没有指纹菜单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM8068T-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5产线问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反应产线数据上传失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新上传工具</t>
+  </si>
+  <si>
     <t xml:space="preserve">K706G_3846_MITO T85_HYD</t>
   </si>
   <si>
@@ -550,6 +568,15 @@
   </si>
   <si>
     <t xml:space="preserve">检查数据中有其他项目的*.pubkey存在，删掉之后再上传解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y89938_V45A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反应写key失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查是kph ta版本使用版本不对</t>
   </si>
   <si>
     <t xml:space="preserve">3643_LF708_navitel</t>
@@ -642,10 +669,21 @@
 更换最新版tee.bin解决</t>
   </si>
   <si>
+    <t xml:space="preserve">LF713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8其它问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS测试失败，失败项为
+android.keystore.cts.KeyAttestationTest.testRsaAttestations
+android.keystore.cts.KeyAttestationTest.testEcAttestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">没有写key导致</t>
+  </si>
+  <si>
     <t xml:space="preserve">T758-8071C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5产线问题</t>
   </si>
   <si>
     <t xml:space="preserve">工厂写号失败，不能恢复出厂设置</t>
@@ -697,9 +735,6 @@
   </si>
   <si>
     <t xml:space="preserve">C719-8045C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8其它问题</t>
   </si>
   <si>
     <t xml:space="preserve">在工厂使用MES系统写号后不能恢复
@@ -954,6 +989,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+  </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
@@ -1048,18 +1086,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.7767441860465"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.1627906976744"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2279069767442"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.8697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.8837209302326"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1237,21 +1276,41 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>20180906</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+    <row r="10" customFormat="false" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>20180906</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>20180906</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,17 +1356,18 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.1906976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.5302325581395"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.2558139534884"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.0372093023256"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="88.1116279069768"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,7 +1395,7 @@
     </row>
     <row r="2" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180524</v>
@@ -1344,10 +1404,10 @@
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180524</v>
@@ -1356,19 +1416,19 @@
     </row>
     <row r="3" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180601</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180601</v>
@@ -1377,7 +1437,7 @@
     </row>
     <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -1386,10 +1446,10 @@
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180608</v>
@@ -1398,19 +1458,19 @@
     </row>
     <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180620</v>
@@ -1419,19 +1479,19 @@
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180619</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180619</v>
@@ -1440,19 +1500,19 @@
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180621</v>
@@ -1461,19 +1521,19 @@
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180622</v>
@@ -1482,7 +1542,7 @@
     </row>
     <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>20180702</v>
@@ -1491,10 +1551,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180702</v>
@@ -1503,7 +1563,7 @@
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>20180721</v>
@@ -1512,10 +1572,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180720</v>
@@ -1524,7 +1584,7 @@
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>20180723</v>
@@ -1533,10 +1593,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180723</v>
@@ -1545,7 +1605,7 @@
     </row>
     <row r="12" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>20180725</v>
@@ -1554,10 +1614,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180726</v>
@@ -1566,19 +1626,19 @@
     </row>
     <row r="13" customFormat="false" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>20180731</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>20180731</v>
@@ -1587,7 +1647,7 @@
     </row>
     <row r="14" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>20180802</v>
@@ -1596,44 +1656,44 @@
         <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="40.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>20180807</v>
@@ -1642,39 +1702,58 @@
         <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>20180809</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>20180816</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>20180816</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>20180903</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>20180903</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C13" type="list">
@@ -1697,20 +1776,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.4697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.6093023255814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.6837209302326"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.0883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,19 +1818,19 @@
     </row>
     <row r="2" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180529</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180529</v>
@@ -1759,7 +1839,7 @@
     </row>
     <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180622</v>
@@ -1768,10 +1848,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180702</v>
@@ -1780,7 +1860,7 @@
     </row>
     <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180725</v>
@@ -1789,10 +1869,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180725</v>
@@ -1801,7 +1881,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180730</v>
@@ -1810,10 +1890,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180730</v>
@@ -1831,10 +1911,10 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180806</v>
@@ -1855,7 +1935,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180821</v>
@@ -1868,13 +1948,13 @@
         <v>20180822</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180822</v>
@@ -1892,10 +1972,10 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180823</v>
@@ -1911,10 +1991,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180823</v>
@@ -1932,10 +2012,10 @@
         <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180829</v>
@@ -1951,10 +2031,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180830</v>
@@ -1963,7 +2043,7 @@
     </row>
     <row r="13" customFormat="false" ht="42.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>20180830</v>
@@ -1972,13 +2052,33 @@
         <v>45</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>20180831</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>20180907</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>20180907</v>
       </c>
     </row>
   </sheetData>
@@ -2011,11 +2111,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.6511627906977"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="88.2372093023256"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="18.706976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.7441860465116"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.9441860465116"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2043,19 +2144,19 @@
     </row>
     <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180530</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180531</v>
@@ -2064,7 +2165,7 @@
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180530</v>
@@ -2073,10 +2174,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180531</v>
@@ -2085,7 +2186,7 @@
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180723</v>
@@ -2094,10 +2195,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180724</v>
@@ -2106,7 +2207,7 @@
     </row>
     <row r="5" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180806</v>
@@ -2115,10 +2216,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180806</v>
@@ -2127,7 +2228,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180816</v>
@@ -2136,10 +2237,10 @@
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180821</v>
@@ -2155,10 +2256,10 @@
         <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180823</v>
@@ -2167,16 +2268,16 @@
     </row>
     <row r="8" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180829</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2242,18 +2343,19 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.3906976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="98.3255813953488"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="88.9720930232558"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="101.279069767442"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,19 +2383,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180525</v>
@@ -2302,7 +2404,7 @@
     </row>
     <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180524</v>
@@ -2311,10 +2413,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180524</v>
@@ -2323,7 +2425,7 @@
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -2332,10 +2434,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180605</v>
@@ -2344,7 +2446,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180609</v>
@@ -2353,10 +2455,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180611</v>
@@ -2365,7 +2467,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180621</v>
@@ -2374,10 +2476,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180621</v>
@@ -2386,7 +2488,7 @@
     </row>
     <row r="7" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180830</v>
@@ -2395,7 +2497,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2480,17 +2582,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.2418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.3488372093023"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.6511627906977"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.0697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="88.2372093023256"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,19 +2621,19 @@
     </row>
     <row r="2" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180528</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180528</v>
@@ -2539,7 +2642,7 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180725</v>
@@ -2548,10 +2651,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180725</v>
@@ -2664,19 +2767,19 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.1627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="59.9302325581395"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.6418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.6558139534884"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="12.1813953488372"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2690,7 +2793,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>19</v>
@@ -2704,19 +2807,19 @@
     </row>
     <row r="2" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>20180823</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>20180824</v>
@@ -2727,13 +2830,13 @@
         <v>20180827</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>20180828</v>
@@ -2747,8 +2850,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="194">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -405,6 +405,21 @@
     <t xml:space="preserve">更新上传工具</t>
   </si>
   <si>
+    <t xml:space="preserve">MM3909D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS测试内存超标20多M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原是64M的TEE OS  更换20M的tee os</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新tee.bin之后开不了机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内存配置有误，更正后解决</t>
+  </si>
+  <si>
     <t xml:space="preserve">K706G_3846_MITO T85_HYD</t>
   </si>
   <si>
@@ -577,6 +592,15 @@
   </si>
   <si>
     <t xml:space="preserve">检查是kph ta版本使用版本不对</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.指纹问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指纹不能使用，没有指纹菜单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查TEE没有问题，指纹排查后发现是误释放了REE的指纹驱动</t>
   </si>
   <si>
     <t xml:space="preserve">3643_LF708_navitel</t>
@@ -990,7 +1014,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,19 +1110,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.8697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.8837209302326"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.0837209302326"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="64.7302325581395"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1313,22 +1337,44 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+    <row r="11" customFormat="false" ht="26.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>20180910</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>20180910</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="3" t="n">
+        <v>20180911</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>20180911</v>
+      </c>
       <c r="G12" s="3"/>
     </row>
   </sheetData>
@@ -1353,21 +1399,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.2558139534884"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.0372093023256"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="88.1116279069768"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.0279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.7627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.8186046511628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.6418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,7 +1441,7 @@
     </row>
     <row r="2" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180524</v>
@@ -1404,10 +1450,10 @@
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180524</v>
@@ -1416,19 +1462,19 @@
     </row>
     <row r="3" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180601</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180601</v>
@@ -1437,7 +1483,7 @@
     </row>
     <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -1446,10 +1492,10 @@
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180608</v>
@@ -1458,19 +1504,19 @@
     </row>
     <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180620</v>
@@ -1479,19 +1525,19 @@
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180619</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180619</v>
@@ -1500,19 +1546,19 @@
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180621</v>
@@ -1521,19 +1567,19 @@
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180622</v>
@@ -1542,7 +1588,7 @@
     </row>
     <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>20180702</v>
@@ -1551,10 +1597,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180702</v>
@@ -1563,7 +1609,7 @@
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>20180721</v>
@@ -1572,10 +1618,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180720</v>
@@ -1584,7 +1630,7 @@
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>20180723</v>
@@ -1593,10 +1639,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180723</v>
@@ -1605,7 +1651,7 @@
     </row>
     <row r="12" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>20180725</v>
@@ -1614,10 +1660,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180726</v>
@@ -1626,19 +1672,19 @@
     </row>
     <row r="13" customFormat="false" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>20180731</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>20180731</v>
@@ -1647,7 +1693,7 @@
     </row>
     <row r="14" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>20180802</v>
@@ -1656,44 +1702,44 @@
         <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="40.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>20180807</v>
@@ -1702,33 +1748,33 @@
         <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>20180809</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>20180816</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>20180816</v>
@@ -1736,7 +1782,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>20180903</v>
@@ -1745,13 +1791,30 @@
         <v>31</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>20180903</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>20180912</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>20180913</v>
       </c>
     </row>
   </sheetData>
@@ -1778,19 +1841,19 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.6837209302326"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.0883720930233"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.2418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.8976744186047"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.5627906976744"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,19 +1881,19 @@
     </row>
     <row r="2" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180529</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180529</v>
@@ -1839,7 +1902,7 @@
     </row>
     <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180622</v>
@@ -1848,10 +1911,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180702</v>
@@ -1860,7 +1923,7 @@
     </row>
     <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180725</v>
@@ -1869,10 +1932,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180725</v>
@@ -1881,7 +1944,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180730</v>
@@ -1890,10 +1953,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180730</v>
@@ -1911,10 +1974,10 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180806</v>
@@ -1935,7 +1998,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180821</v>
@@ -1948,13 +2011,13 @@
         <v>20180822</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180822</v>
@@ -1972,10 +2035,10 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180823</v>
@@ -1991,10 +2054,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180823</v>
@@ -2012,10 +2075,10 @@
         <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180829</v>
@@ -2031,10 +2094,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180830</v>
@@ -2043,7 +2106,7 @@
     </row>
     <row r="13" customFormat="false" ht="42.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>20180830</v>
@@ -2052,10 +2115,10 @@
         <v>45</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>20180831</v>
@@ -2063,19 +2126,19 @@
     </row>
     <row r="14" customFormat="false" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>20180907</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>20180907</v>
@@ -2106,17 +2169,17 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="18.706976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.7441860465116"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.9441860465116"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.8372093023256"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.7720930232558"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2144,7 +2207,7 @@
     </row>
     <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180530</v>
@@ -2153,10 +2216,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180531</v>
@@ -2165,7 +2228,7 @@
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180530</v>
@@ -2174,10 +2237,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180531</v>
@@ -2186,7 +2249,7 @@
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180723</v>
@@ -2195,10 +2258,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180724</v>
@@ -2207,7 +2270,7 @@
     </row>
     <row r="5" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180806</v>
@@ -2216,10 +2279,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180806</v>
@@ -2228,7 +2291,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180816</v>
@@ -2237,10 +2300,10 @@
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180821</v>
@@ -2256,10 +2319,10 @@
         <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180823</v>
@@ -2268,7 +2331,7 @@
     </row>
     <row r="8" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180829</v>
@@ -2277,7 +2340,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2349,13 +2412,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="88.9720930232558"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="101.279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9023255813953"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="91.6790697674419"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="104.358139534884"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,19 +2446,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180525</v>
@@ -2404,7 +2467,7 @@
     </row>
     <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180524</v>
@@ -2413,10 +2476,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180524</v>
@@ -2425,7 +2488,7 @@
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -2434,10 +2497,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180605</v>
@@ -2446,7 +2509,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180609</v>
@@ -2455,10 +2518,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180611</v>
@@ -2467,7 +2530,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180621</v>
@@ -2476,10 +2539,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180621</v>
@@ -2488,7 +2551,7 @@
     </row>
     <row r="7" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180830</v>
@@ -2497,7 +2560,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2587,13 +2650,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.0697674418605"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="88.2372093023256"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2093023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.9162790697674"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.9441860465116"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,19 +2684,19 @@
     </row>
     <row r="2" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180528</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180528</v>
@@ -2642,7 +2705,7 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180725</v>
@@ -2651,10 +2714,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180725</v>
@@ -2766,20 +2829,20 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.6418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.6558139534884"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.2372093023256"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.5023255813954"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1209302325581"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.0418604651163"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="12.4279069767442"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2793,7 +2856,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>19</v>
@@ -2807,19 +2870,19 @@
     </row>
     <row r="2" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>20180823</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>20180824</v>
@@ -2830,13 +2893,13 @@
         <v>20180827</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>20180828</v>

--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="195">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t xml:space="preserve">检查TEE没有问题，指纹排查后发现是误释放了REE的指纹驱动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y819</t>
   </si>
   <si>
     <t xml:space="preserve">3643_LF708_navitel</t>
@@ -1014,7 +1017,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,13 +1119,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.0837209302326"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="64.7302325581395"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7023255813953"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.2976744186047"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="66.6976744186047"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1399,21 +1402,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.7627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.8186046511628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="22.6418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.6093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.6511627906977"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,6 +1818,20 @@
       </c>
       <c r="F19" s="0" t="n">
         <v>20180913</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="38.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>20180915</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1847,13 +1864,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.2418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.8976744186047"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.5627906976744"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="80.2372093023256"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.1627906976744"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,7 +1898,7 @@
     </row>
     <row r="2" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180529</v>
@@ -1890,10 +1907,10 @@
         <v>63</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180529</v>
@@ -1902,7 +1919,7 @@
     </row>
     <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180622</v>
@@ -1911,10 +1928,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180702</v>
@@ -1923,7 +1940,7 @@
     </row>
     <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180725</v>
@@ -1932,10 +1949,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180725</v>
@@ -1944,7 +1961,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180730</v>
@@ -1953,10 +1970,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180730</v>
@@ -1974,10 +1991,10 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180806</v>
@@ -1998,7 +2015,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180821</v>
@@ -2014,10 +2031,10 @@
         <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180822</v>
@@ -2035,10 +2052,10 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180823</v>
@@ -2054,10 +2071,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180823</v>
@@ -2075,10 +2092,10 @@
         <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180829</v>
@@ -2094,10 +2111,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180830</v>
@@ -2106,7 +2123,7 @@
     </row>
     <row r="13" customFormat="false" ht="42.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>20180830</v>
@@ -2115,10 +2132,10 @@
         <v>45</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>20180831</v>
@@ -2126,19 +2143,19 @@
     </row>
     <row r="14" customFormat="false" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>20180907</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>20180907</v>
@@ -2174,12 +2191,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.3209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="73.8372093023256"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.7720930232558"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.0511627906977"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="96.6046511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,7 +2224,7 @@
     </row>
     <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180530</v>
@@ -2216,10 +2233,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180531</v>
@@ -2228,7 +2245,7 @@
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180530</v>
@@ -2249,7 +2266,7 @@
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180723</v>
@@ -2258,10 +2275,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180724</v>
@@ -2270,7 +2287,7 @@
     </row>
     <row r="5" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180806</v>
@@ -2279,10 +2296,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180806</v>
@@ -2291,7 +2308,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180816</v>
@@ -2300,10 +2317,10 @@
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180821</v>
@@ -2319,10 +2336,10 @@
         <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180823</v>
@@ -2331,7 +2348,7 @@
     </row>
     <row r="8" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180829</v>
@@ -2340,7 +2357,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2412,13 +2429,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9023255813953"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="91.6790697674419"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="104.358139534884"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="94.3906976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="107.558139534884"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,19 +2463,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180525</v>
@@ -2467,7 +2484,7 @@
     </row>
     <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180524</v>
@@ -2476,10 +2493,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180524</v>
@@ -2488,7 +2505,7 @@
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -2497,10 +2514,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180605</v>
@@ -2509,7 +2526,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180609</v>
@@ -2518,10 +2535,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180611</v>
@@ -2530,7 +2547,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180621</v>
@@ -2539,10 +2556,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180621</v>
@@ -2551,7 +2568,7 @@
     </row>
     <row r="7" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180830</v>
@@ -2560,7 +2577,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2650,13 +2667,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2093023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.9162790697674"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.9441860465116"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.153488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.6372093023256"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.7720930232558"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,7 +2701,7 @@
     </row>
     <row r="2" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180528</v>
@@ -2693,10 +2710,10 @@
         <v>63</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180528</v>
@@ -2705,7 +2722,7 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180725</v>
@@ -2714,10 +2731,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180725</v>
@@ -2829,20 +2846,20 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.2372093023256"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.5023255813954"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.9627906976744"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.3441860465116"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="12.6744186046512"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2856,7 +2873,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>19</v>
@@ -2870,19 +2887,19 @@
     </row>
     <row r="2" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>20180823</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>20180824</v>
@@ -2893,13 +2910,13 @@
         <v>20180827</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>20180828</v>
@@ -2913,8 +2930,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="210">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -420,6 +420,15 @@
     <t xml:space="preserve">内存配置有误，更正后解决</t>
   </si>
   <si>
+    <t xml:space="preserve">4 GMS问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTS测试失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更换9ef77781-*.ta后解决</t>
+  </si>
+  <si>
     <t xml:space="preserve">K706G_3846_MITO T85_HYD</t>
   </si>
   <si>
@@ -604,6 +613,31 @@
   </si>
   <si>
     <t xml:space="preserve">Y819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">写keybox失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.代码比较混乱，存储分区异常
+2.array.c没有编译到，手动签ta后解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y8355 S40C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">集成TEE后开机重启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shareMemory没有配好</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S5701_I857A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指纹不能用，没有指纹菜单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指纹FAE发错了驱动</t>
   </si>
   <si>
     <t xml:space="preserve">3643_LF708_navitel</t>
@@ -640,9 +674,6 @@
     <t xml:space="preserve">LF718T_4319_CF</t>
   </si>
   <si>
-    <t xml:space="preserve">写keybox失败</t>
-  </si>
-  <si>
     <t xml:space="preserve">roco工程师没有使用对应kph ta导致</t>
   </si>
   <si>
@@ -710,6 +741,13 @@
     <t xml:space="preserve">没有写key导致</t>
   </si>
   <si>
+    <t xml:space="preserve">LF705B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.重启会在动画界面卡死重启
+2.重启关机后黑屏，不会自动重启</t>
+  </si>
+  <si>
     <t xml:space="preserve">T758-8071C</t>
   </si>
   <si>
@@ -830,6 +868,15 @@
   </si>
   <si>
     <t xml:space="preserve">更换tee.bin文件解决</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6208P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android P新项目调试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">集成BSP</t>
   </si>
   <si>
     <t xml:space="preserve">问题描述</t>
@@ -1017,7 +1064,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,21 +1158,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7023255813953"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.2976744186047"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="66.6976744186047"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.3116279069767"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.8511627906977"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.753488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1379,6 +1426,23 @@
         <v>20180911</v>
       </c>
       <c r="G12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
+        <v>20180917</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>20180917</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1402,21 +1466,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.4744186046512"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.6093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.6511627906977"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.2604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="18.953488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.2837209302326"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="102.386046511628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="25.2279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1444,7 +1508,7 @@
     </row>
     <row r="2" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180524</v>
@@ -1453,10 +1517,10 @@
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180524</v>
@@ -1465,19 +1529,19 @@
     </row>
     <row r="3" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180601</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180601</v>
@@ -1486,7 +1550,7 @@
     </row>
     <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -1495,10 +1559,10 @@
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180608</v>
@@ -1507,19 +1571,19 @@
     </row>
     <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180620</v>
@@ -1528,19 +1592,19 @@
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180619</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180619</v>
@@ -1549,19 +1613,19 @@
     </row>
     <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180621</v>
@@ -1570,19 +1634,19 @@
     </row>
     <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180622</v>
@@ -1591,7 +1655,7 @@
     </row>
     <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>20180702</v>
@@ -1600,10 +1664,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180702</v>
@@ -1612,7 +1676,7 @@
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>20180721</v>
@@ -1621,10 +1685,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180720</v>
@@ -1633,7 +1697,7 @@
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>20180723</v>
@@ -1642,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180723</v>
@@ -1654,7 +1718,7 @@
     </row>
     <row r="12" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>20180725</v>
@@ -1663,10 +1727,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180726</v>
@@ -1675,19 +1739,19 @@
     </row>
     <row r="13" customFormat="false" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>20180731</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>20180731</v>
@@ -1696,7 +1760,7 @@
     </row>
     <row r="14" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>20180802</v>
@@ -1705,44 +1769,44 @@
         <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="40.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>20180807</v>
@@ -1751,33 +1815,33 @@
         <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>20180809</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>20180816</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>20180816</v>
@@ -1785,7 +1849,7 @@
     </row>
     <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>20180903</v>
@@ -1794,10 +1858,10 @@
         <v>31</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>20180903</v>
@@ -1808,13 +1872,13 @@
         <v>20180912</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>20180913</v>
@@ -1822,16 +1886,62 @@
     </row>
     <row r="20" customFormat="false" ht="38.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>20180915</v>
+        <v>20180917</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>20180917</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>20180919</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>20180919</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="40.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>20180920</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>20180920</v>
       </c>
     </row>
   </sheetData>
@@ -1856,21 +1966,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9813953488372"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="80.2372093023256"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.1627906976744"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.3348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.8651162790698"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.9627906976744"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1898,19 +2008,19 @@
     </row>
     <row r="2" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180529</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180529</v>
@@ -1919,7 +2029,7 @@
     </row>
     <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180622</v>
@@ -1928,10 +2038,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180702</v>
@@ -1940,7 +2050,7 @@
     </row>
     <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180725</v>
@@ -1949,10 +2059,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180725</v>
@@ -1961,7 +2071,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180730</v>
@@ -1970,10 +2080,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180730</v>
@@ -1991,10 +2101,10 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180806</v>
@@ -2015,7 +2125,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180821</v>
@@ -2028,13 +2138,13 @@
         <v>20180822</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180822</v>
@@ -2052,10 +2162,10 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180823</v>
@@ -2071,10 +2181,10 @@
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180823</v>
@@ -2092,10 +2202,10 @@
         <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180829</v>
@@ -2111,10 +2221,10 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180830</v>
@@ -2123,7 +2233,7 @@
     </row>
     <row r="13" customFormat="false" ht="42.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>20180830</v>
@@ -2132,10 +2242,10 @@
         <v>45</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>20180831</v>
@@ -2143,22 +2253,36 @@
     </row>
     <row r="14" customFormat="false" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>20180907</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>20180907</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="48.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>20180920</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2191,12 +2315,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="19.9348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.0511627906977"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="96.6046511627907"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.0651162790698"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="105.586046511628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,7 +2348,7 @@
     </row>
     <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180530</v>
@@ -2233,10 +2357,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180531</v>
@@ -2245,7 +2369,7 @@
     </row>
     <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180530</v>
@@ -2254,10 +2378,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180531</v>
@@ -2266,7 +2390,7 @@
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180723</v>
@@ -2275,10 +2399,10 @@
         <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180724</v>
@@ -2287,7 +2411,7 @@
     </row>
     <row r="5" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180806</v>
@@ -2296,10 +2420,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180806</v>
@@ -2308,7 +2432,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180816</v>
@@ -2317,10 +2441,10 @@
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180821</v>
@@ -2336,10 +2460,10 @@
         <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180823</v>
@@ -2348,7 +2472,7 @@
     </row>
     <row r="8" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180829</v>
@@ -2357,7 +2481,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2429,13 +2553,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7674418604651"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.9953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="94.3906976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="107.558139534884"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.9488372093023"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="103.125581395349"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="117.525581395349"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,19 +2587,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180525</v>
@@ -2484,7 +2608,7 @@
     </row>
     <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180524</v>
@@ -2493,10 +2617,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180524</v>
@@ -2505,7 +2629,7 @@
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -2514,10 +2638,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180605</v>
@@ -2526,7 +2650,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180609</v>
@@ -2535,10 +2659,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180611</v>
@@ -2547,7 +2671,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180621</v>
@@ -2556,10 +2680,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180621</v>
@@ -2568,7 +2692,7 @@
     </row>
     <row r="7" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180830</v>
@@ -2577,7 +2701,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2662,18 +2786,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.153488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.6372093023256"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.7720930232558"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.5441860465116"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="102.511627906977"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,19 +2825,19 @@
     </row>
     <row r="2" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180528</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180528</v>
@@ -2722,7 +2846,7 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180725</v>
@@ -2731,10 +2855,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180725</v>
@@ -2742,12 +2866,24 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="27.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>20180919</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>20180921</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,20 +2982,20 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.9627906976744"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.3441860465116"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.2558139534884"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="71.4976744186046"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.4139534883721"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2873,7 +3009,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>19</v>
@@ -2887,19 +3023,19 @@
     </row>
     <row r="2" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>20180823</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>20180824</v>
@@ -2910,13 +3046,13 @@
         <v>20180827</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>20180828</v>
@@ -2930,8 +3066,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/FAE项目问题更新-杨胜齐.xlsx
+++ b/FAE项目问题更新-杨胜齐.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Remark" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,9 @@
     <sheet name="麦穗" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="麦穗（昶音）" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="泽盺" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="TCL" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="微掌" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="TCL" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="华卓" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="228">
   <si>
     <t xml:space="preserve">问题类型：</t>
   </si>
@@ -38,7 +40,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
@@ -63,7 +65,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2. </t>
     </r>
@@ -95,7 +97,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">cts</t>
     </r>
@@ -117,7 +119,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3. </t>
     </r>
@@ -142,7 +144,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4. Gms</t>
     </r>
@@ -174,7 +176,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">gms</t>
     </r>
@@ -196,7 +198,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">5. </t>
     </r>
@@ -231,7 +233,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">keybox</t>
     </r>
@@ -263,7 +265,7 @@
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">keybox, </t>
     </r>
@@ -429,6 +431,24 @@
     <t xml:space="preserve">更换9ef77781-*.ta后解决</t>
   </si>
   <si>
+    <t xml:space="preserve">MM3909D/F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 指纹问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指纹读不到ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM8002F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指纹签名失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">项目tee证书没有使用oss上的证书，导致签名失败</t>
+  </si>
+  <si>
     <t xml:space="preserve">K706G_3846_MITO T85_HYD</t>
   </si>
   <si>
@@ -622,15 +642,6 @@
 2.array.c没有编译到，手动签ta后解决</t>
   </si>
   <si>
-    <t xml:space="preserve">Y8355 S40C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">集成TEE后开机重启</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shareMemory没有配好</t>
-  </si>
-  <si>
     <t xml:space="preserve">S5701_I857A</t>
   </si>
   <si>
@@ -638,6 +649,15 @@
   </si>
   <si>
     <t xml:space="preserve">指纹FAE发错了驱动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y3968-PQ568M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开机重启</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指纹REE驱动没有关，关掉之后没有需要clean掉out重新编译</t>
   </si>
   <si>
     <t xml:space="preserve">3643_LF708_navitel</t>
@@ -748,6 +768,9 @@
 2.重启关机后黑屏，不会自动重启</t>
   </si>
   <si>
+    <t xml:space="preserve">tee.bin有问题，更换tee.bin后解决</t>
+  </si>
+  <si>
     <t xml:space="preserve">T758-8071C</t>
   </si>
   <si>
@@ -799,6 +822,28 @@
 Keybox</t>
   </si>
   <si>
+    <t xml:space="preserve">e906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新项目调试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">现场调试完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指纹权限不够
+屏下指纹调试，释放支持屏下指纹的tee.bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">找指纹FAE解决权限问题，tee.bin现场校验完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kph ta加载不起来导致写keybox失败</t>
+  </si>
+  <si>
     <t xml:space="preserve">C719-8045C</t>
   </si>
   <si>
@@ -850,6 +895,12 @@
     <t xml:space="preserve">手机由机主模式切换到访客模式后，再切换回机主模式，之前建立的指纹会丢失</t>
   </si>
   <si>
+    <t xml:space="preserve">C719-S5501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protect_f没有配好，调整后OK</t>
+  </si>
+  <si>
     <t xml:space="preserve">5025PH,5301PH,
 5301AM,5303KH</t>
   </si>
@@ -879,16 +930,22 @@
     <t xml:space="preserve">集成BSP</t>
   </si>
   <si>
+    <t xml:space="preserve">P项目做keybox检测接口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拷贝vendor下的libkphporoxy.so,libteec.so,libkphhelper.so,libpl.so到system下</t>
+  </si>
+  <si>
     <t xml:space="preserve">问题描述</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">5081Y</t>
   </si>
   <si>
     <t xml:space="preserve">8.其他问题</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新项目调试</t>
   </si>
   <si>
     <t xml:space="preserve">远程调试,pld状态，gptest，写key，otrp测试正常</t>
@@ -946,7 +1003,7 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1064,7 +1121,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5674418604651"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,26 +1210,85 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="9.22790697674419"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.29302325581395"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.706976744186"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6744186046512"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.3116279069767"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.8511627906977"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.4697674418605"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.9162790697674"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.78604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.446511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1444,9 +1560,49 @@
         <v>20180917</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="39.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>20180928</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>20180929</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>20181008</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>20181010</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C12" type="list">
+    <dataValidation allowBlank="true" operator="equal" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C12" type="list">
       <formula1>"1开机问题,2指纹问题,3性能问题,4GMS测试问题,5产线问题,6 Keybox问题,7 支付问题 ,8 其他问题"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1468,22 +1624,23 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="18.953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.2837209302326"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="102.386046511628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="25.2279069767442"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.0232558139535"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.3441860465116"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.706976744186"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -1506,9 +1663,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180524</v>
@@ -1517,40 +1674,40 @@
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>20180524</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180601</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180601</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -1559,103 +1716,103 @@
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180608</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180619</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180619</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180620</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180621</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180622</v>
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>20180702</v>
@@ -1664,19 +1821,19 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180702</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>20180721</v>
@@ -1685,19 +1842,19 @@
         <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180720</v>
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>20180723</v>
@@ -1706,19 +1863,19 @@
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180723</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="88.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>20180725</v>
@@ -1727,40 +1884,40 @@
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180726</v>
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="55.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>20180731</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>20180731</v>
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>20180802</v>
@@ -1769,44 +1926,44 @@
         <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>20180806</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="40.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>20180807</v>
@@ -1815,41 +1972,41 @@
         <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>20180809</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>20180816</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>20180816</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>20180903</v>
@@ -1858,35 +2015,35 @@
         <v>31</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>20180903</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
         <v>20180912</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>20180913</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="38.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>20180917</v>
@@ -1895,58 +2052,58 @@
         <v>31</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>20180917</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>20180920</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>20180919</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>20180920</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>20180929</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>20180919</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="40.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>20180920</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="D22" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>20180920</v>
+        <v>20180929</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C13" type="list">
+    <dataValidation allowBlank="true" operator="equal" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C13" type="list">
       <formula1>"1开机问题,2指纹问题,3性能问题,4GMS测试问题,5产线问题,6 Keybox问题,7 支付问题 ,8 其他问题"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1969,21 +2126,22 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.8651162790698"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="57.9627906976744"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.6744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.4604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="72.1162790697674"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.0093023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.53953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.706976744186"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -2006,30 +2164,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="71.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180529</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180529</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180622</v>
@@ -2038,19 +2196,19 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180702</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180725</v>
@@ -2059,19 +2217,19 @@
         <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180725</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="31.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180730</v>
@@ -2080,17 +2238,17 @@
         <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180730</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="30.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
         <v>4251</v>
       </c>
@@ -2101,17 +2259,17 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180806</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="30.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
         <v>4236</v>
       </c>
@@ -2125,33 +2283,33 @@
         <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180821</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="n">
         <v>20180822</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>20180822</v>
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="27.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>4637</v>
       </c>
@@ -2162,17 +2320,17 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>20180823</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="30.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="n">
         <v>20180823</v>
@@ -2181,17 +2339,17 @@
         <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>20180823</v>
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
         <v>3684</v>
       </c>
@@ -2202,17 +2360,17 @@
         <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>20180829</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="n">
         <v>20180830</v>
@@ -2221,19 +2379,19 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>20180830</v>
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="42.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>20180830</v>
@@ -2242,38 +2400,38 @@
         <v>45</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>20180831</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="54.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>20180907</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>20180907</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="48.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>20180920</v>
@@ -2282,12 +2440,18 @@
         <v>45</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>20180925</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C12" type="list">
+    <dataValidation allowBlank="true" operator="equal" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C12" type="list">
       <formula1>"1开机问题,2指纹问题,3性能问题,4GMS测试问题,5产线问题,6 Keybox问题,7 支付问题 ,8 其他问题"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2313,17 +2477,19 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.9674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.0651162790698"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="105.586046511628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.506976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.3023255813954"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.53953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.706976744186"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -2346,9 +2512,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180530</v>
@@ -2357,19 +2523,19 @@
         <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180531</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180530</v>
@@ -2378,19 +2544,19 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180531</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="71.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180723</v>
@@ -2399,19 +2565,19 @@
         <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180724</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="35.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180806</v>
@@ -2420,19 +2586,19 @@
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180806</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180816</v>
@@ -2441,17 +2607,17 @@
         <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180821</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="n">
         <v>20180822</v>
@@ -2460,19 +2626,19 @@
         <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>20180823</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>20180829</v>
@@ -2481,51 +2647,91 @@
         <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+    <row r="9" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>20180925</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>20180926</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="3" t="n">
+        <v>20180928</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>20180928</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
+    <row r="11" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>20181010</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="n">
+        <v>20181010</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
+    <row r="12" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>20181011</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C12" type="list">
+    <dataValidation allowBlank="true" operator="equal" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C12" type="list">
       <formula1>"1开机问题,2指纹问题,3性能问题,4GMS测试问题,5产线问题,6 Keybox问题,7 支付问题 ,8 其他问题"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2548,18 +2754,19 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.0558139534884"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="103.125581395349"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="117.525581395349"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.3302325581395"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.1953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.78604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.446511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,19 +2794,19 @@
     </row>
     <row r="2" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180519</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180525</v>
@@ -2608,7 +2815,7 @@
     </row>
     <row r="3" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180524</v>
@@ -2617,10 +2824,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180524</v>
@@ -2629,7 +2836,7 @@
     </row>
     <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180605</v>
@@ -2638,10 +2845,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180605</v>
@@ -2650,7 +2857,7 @@
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20180609</v>
@@ -2659,10 +2866,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>20180611</v>
@@ -2671,7 +2878,7 @@
     </row>
     <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>20180621</v>
@@ -2680,10 +2887,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>20180621</v>
@@ -2692,7 +2899,7 @@
     </row>
     <row r="7" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>20180830</v>
@@ -2701,19 +2908,31 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" customFormat="false" ht="30.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>20180929</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>20180929</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,7 +2982,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C13" type="list">
+    <dataValidation allowBlank="true" operator="equal" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3:C13" type="list">
       <formula1>"1开机问题,2指纹问题,3性能问题,4GMS测试问题,5产线问题,6 Keybox问题,7 支付问题 ,8 其他问题"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2786,18 +3005,19 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3953488372093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1813953488372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.5441860465116"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="102.511627906977"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.1162790697674"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="73.0976744186047"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.78604651162791"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.446511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,19 +3045,19 @@
     </row>
     <row r="2" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20180528</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>20180528</v>
@@ -2846,7 +3066,7 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20180725</v>
@@ -2855,10 +3075,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>20180725</v>
@@ -2867,32 +3087,44 @@
     </row>
     <row r="4" customFormat="false" ht="27.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>20180919</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>20180921</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+    <row r="5" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>20181008</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>20181010</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,7 +3192,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C12" type="list">
+    <dataValidation allowBlank="true" operator="equal" prompt="1. 开机问题　如：黑屏问题，重启问题；2. 指纹问题　如：指纹cts测试问题，指纹性能问题，指纹无菜单问题; 3. 性能问题　如：手机卡顿问题 ; 4. Gms测试问题　如：gms相关测试失败问题；5. 产线问题 如：工具对接问题， 工具使用问题； ６．keybox问题 如：如何申请keybox,  如何拆分， 如何写入以及保管问题；７．支付问题；８,其他问题" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C12" type="list">
       <formula1>"1开机问题,2指纹问题,3性能问题,4GMS测试问题,5产线问题,6 Keybox问题,7 支付问题 ,8 其他问题"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2980,22 +3212,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.153488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.2558139534884"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="71.4976744186046"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0883720930233"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.4139534883721"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.446511627907"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3009,7 +3234,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>19</v>
@@ -3020,47 +3245,107 @@
       <c r="G1" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H1" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5674418604651"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.1953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.04651162790698"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.6"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.706976744186"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="18.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>20180823</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>20180824</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="42.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="53.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="n">
         <v>20180827</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>20180828</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
